--- a/QuanLyKhoHangLaptop/bin/database/DanhSachNhanVien.xlsx
+++ b/QuanLyKhoHangLaptop/bin/database/DanhSachNhanVien.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t/>
   </si>
@@ -44,7 +44,7 @@
     <t>Trần Hoài Nam</t>
   </si>
   <si>
-    <t>2004-01-30</t>
+    <t>2004-11-01</t>
   </si>
   <si>
     <t>0939513574</t>
@@ -68,33 +68,6 @@
     <t>ND2</t>
   </si>
   <si>
-    <t>NV3</t>
-  </si>
-  <si>
-    <t>Trần Thị Huyền My</t>
-  </si>
-  <si>
-    <t>2004-02-11</t>
-  </si>
-  <si>
-    <t>987654321</t>
-  </si>
-  <si>
-    <t>ND3</t>
-  </si>
-  <si>
-    <t>NV4</t>
-  </si>
-  <si>
-    <t>Nguyễn Hoài Anh Kiệt</t>
-  </si>
-  <si>
-    <t>2024-04-30</t>
-  </si>
-  <si>
-    <t>ND4</t>
-  </si>
-  <si>
     <t>NV5</t>
   </si>
   <si>
@@ -105,15 +78,6 @@
   </si>
   <si>
     <t>ND5</t>
-  </si>
-  <si>
-    <t>NV6</t>
-  </si>
-  <si>
-    <t>Trần Thị Ngọc Mai</t>
-  </si>
-  <si>
-    <t>ND6</t>
   </si>
 </sst>
 </file>
@@ -158,7 +122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -247,81 +211,12 @@
         <v>0.0</v>
       </c>
       <c r="E4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>22</v>
-      </c>
       <c r="G4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="G5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="G6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="G7" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
